--- a/Report Template/Test bug/Testplan_template.xlsx
+++ b/Report Template/Test bug/Testplan_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webdev2\Enterprise-Web-Software-Development\Report Template\Test bug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E7E551-BB34-4047-8DCD-21D7F03E2AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC47C90-6F63-4393-B0A9-EFB3D9918ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11BB18A3-74FD-496F-9CD7-427650CCAF0A}"/>
+    <workbookView xWindow="1560" yWindow="840" windowWidth="15765" windowHeight="14760" xr2:uid="{11BB18A3-74FD-496F-9CD7-427650CCAF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Series</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Detailed Description</t>
+  </si>
+  <si>
+    <t>Eclipse, XAMP, MySQL, Windows10, Laptop</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1158,9 @@
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
@@ -1168,7 +1176,9 @@
       <c r="C43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
@@ -1268,6 +1278,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B32"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B54"/>
@@ -1278,11 +1293,6 @@
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B32"/>
     <mergeCell ref="B33:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
